--- a/test_data2/true_rows.xlsx
+++ b/test_data2/true_rows.xlsx
@@ -379,13 +379,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -396,13 +396,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -527,12 +527,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -592,18 +592,18 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -646,12 +646,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -691,21 +691,21 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -739,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -816,18 +816,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -838,13 +838,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -969,15 +969,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1017,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1272,18 +1272,18 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1445,15 +1445,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1479,18 +1479,18 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1541,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1581,15 +1581,15 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1623,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1700,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1785,12 +1785,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1819,12 +1819,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1836,12 +1836,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1946,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -2074,18 +2074,18 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -2176,18 +2176,18 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -2329,15 +2329,15 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -2354,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2504,10 +2504,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2558,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2759,10 +2759,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -2810,13 +2810,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2898,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -3017,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -3043,12 +3043,12 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3218,7 +3218,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -3306,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -3380,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -3391,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -3417,18 +3417,18 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -3462,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3510,13 +3510,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -3533,18 +3533,18 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -3567,15 +3567,15 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3932,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3958,12 +3958,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4000,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4023,18 +4023,18 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -4077,12 +4077,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -4122,21 +4122,21 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -4156,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -4247,18 +4247,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4269,13 +4269,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4320,13 +4320,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -4343,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4400,15 +4400,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -4425,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4448,21 +4448,21 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4507,13 +4507,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4544,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4575,13 +4575,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4615,10 +4615,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -4663,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4703,18 +4703,18 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4833,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -4876,15 +4876,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -4910,18 +4910,18 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -4955,10 +4955,10 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -4972,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -5012,15 +5012,15 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -5054,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -5071,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -5102,10 +5102,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -5131,18 +5131,18 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -5216,12 +5216,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -5250,12 +5250,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -5267,12 +5267,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -5318,12 +5318,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -5343,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -5357,13 +5357,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -5428,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5442,10 +5442,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -5462,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -5505,18 +5505,18 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -5607,18 +5607,18 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -5632,13 +5632,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -5703,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -5760,15 +5760,15 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -5785,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5802,13 +5802,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5816,10 +5816,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5890,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5935,10 +5935,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -5955,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -5989,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -6023,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6108,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6190,10 +6190,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6227,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -6241,13 +6241,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -6275,10 +6275,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6329,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -6380,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -6394,13 +6394,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6411,10 +6411,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -6431,13 +6431,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6448,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -6474,12 +6474,12 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6567,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6649,7 +6649,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -6720,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -6737,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -6751,10 +6751,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -6785,10 +6785,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -6811,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6822,13 +6822,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -6848,18 +6848,18 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -6876,13 +6876,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -6893,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -6904,13 +6904,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6941,13 +6941,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -6964,18 +6964,18 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -6998,15 +6998,15 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -7040,13 +7040,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -7094,13 +7094,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -7125,10 +7125,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -7145,13 +7145,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7196,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -7241,13 +7241,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7258,13 +7258,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -7389,12 +7389,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7431,10 +7431,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7454,18 +7454,18 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -7508,12 +7508,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7530,10 +7530,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -7553,21 +7553,21 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -7587,13 +7587,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7601,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7621,10 +7621,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7632,10 +7632,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -7678,18 +7678,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -7700,13 +7700,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -7751,13 +7751,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -7774,10 +7774,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -7831,15 +7831,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -7879,21 +7879,21 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -7938,13 +7938,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -7975,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -8006,13 +8006,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -8026,10 +8026,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -8094,10 +8094,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -8134,18 +8134,18 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -8176,10 +8176,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -8307,15 +8307,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -8341,18 +8341,18 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -8363,10 +8363,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -8386,10 +8386,10 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -8403,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -8443,15 +8443,15 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -8485,13 +8485,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -8502,13 +8502,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -8522,10 +8522,10 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -8533,10 +8533,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -8562,18 +8562,18 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -8607,10 +8607,10 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -8647,12 +8647,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -8681,12 +8681,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -8698,12 +8698,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -8723,10 +8723,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -8749,12 +8749,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -8788,13 +8788,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -8808,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -8839,10 +8839,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -8873,10 +8873,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -8893,13 +8893,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -8936,18 +8936,18 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -8992,10 +8992,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -9038,18 +9038,18 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -9097,10 +9097,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -9134,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -9162,10 +9162,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -9191,15 +9191,15 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -9216,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -9284,10 +9284,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -9307,10 +9307,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -9366,10 +9366,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -9386,10 +9386,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -9420,10 +9420,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9454,13 +9454,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -9468,10 +9468,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -9508,10 +9508,10 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -9539,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -9621,10 +9621,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -9658,13 +9658,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -9672,13 +9672,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -9706,10 +9706,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -9760,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -9811,10 +9811,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9825,13 +9825,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -9842,10 +9842,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -9862,13 +9862,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -9879,13 +9879,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -9905,12 +9905,12 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -9933,10 +9933,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -10012,13 +10012,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -10080,7 +10080,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -10131,10 +10131,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -10168,10 +10168,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -10182,10 +10182,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -10216,10 +10216,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -10253,13 +10253,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -10279,18 +10279,18 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -10307,13 +10307,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -10324,10 +10324,10 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -10335,13 +10335,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -10395,18 +10395,18 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -10429,15 +10429,15 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -10454,7 +10454,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -10463,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -10471,13 +10471,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -10525,13 +10525,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -10556,10 +10556,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -10576,13 +10576,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -10627,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>

--- a/test_data2/true_rows.xlsx
+++ b/test_data2/true_rows.xlsx
@@ -385,24 +385,24 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -487,21 +487,21 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1130,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1224,15 +1224,15 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1317,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1442,15 +1442,15 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1637,7 +1637,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1677,24 +1677,24 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1802,18 +1802,18 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2045,7 +2045,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2173,18 +2173,18 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2258,18 +2258,18 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2354,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2448,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2482,12 +2482,12 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2538,10 +2538,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2686,15 +2686,15 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2745,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -2779,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2833,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2901,21 +2901,21 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2935,21 +2935,21 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3068,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3136,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -3275,18 +3275,18 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -3306,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -3326,18 +3326,18 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -3363,15 +3363,15 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -3383,15 +3383,15 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -3434,12 +3434,12 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -3499,15 +3499,15 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -3598,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -3615,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3660,10 +3660,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3706,15 +3706,15 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3731,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -3816,24 +3816,24 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3918,21 +3918,21 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4014,10 +4014,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4204,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4238,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4289,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -4360,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -4510,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4547,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -4655,15 +4655,15 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4731,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4748,13 +4748,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -4819,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4873,15 +4873,15 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -4893,12 +4893,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4935,13 +4935,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5068,7 +5068,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -5108,24 +5108,24 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5173,13 +5173,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -5204,13 +5204,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -5233,18 +5233,18 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -5289,13 +5289,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -5340,13 +5340,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -5360,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -5394,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5476,7 +5476,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -5513,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -5561,13 +5561,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -5581,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -5604,18 +5604,18 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -5689,18 +5689,18 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -5731,13 +5731,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -5751,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5785,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5805,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5833,13 +5833,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -5879,18 +5879,18 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -5913,12 +5913,12 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5969,10 +5969,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -6054,13 +6054,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -6071,13 +6071,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -6117,15 +6117,15 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -6196,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -6210,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -6224,13 +6224,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6264,21 +6264,21 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -6295,10 +6295,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -6332,21 +6332,21 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -6366,21 +6366,21 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -6411,13 +6411,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -6428,10 +6428,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -6454,10 +6454,10 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6465,13 +6465,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -6488,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -6513,13 +6513,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6550,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -6567,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -6618,10 +6618,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -6706,18 +6706,18 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -6737,13 +6737,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -6757,18 +6757,18 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -6794,15 +6794,15 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -6814,15 +6814,15 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -6865,12 +6865,12 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6930,15 +6930,15 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -7009,13 +7009,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -7029,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -7063,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7091,10 +7091,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -7137,15 +7137,15 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -7162,10 +7162,10 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -7196,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -7247,24 +7247,24 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -7349,21 +7349,21 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -7380,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7445,10 +7445,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7462,10 +7462,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -7485,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -7530,10 +7530,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -7547,13 +7547,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -7567,10 +7567,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -7635,13 +7635,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7669,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -7720,10 +7720,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -7768,10 +7768,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -7839,10 +7839,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -7853,10 +7853,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -7904,10 +7904,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -7941,10 +7941,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7992,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -8029,13 +8029,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -8086,15 +8086,15 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -8162,10 +8162,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -8179,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -8304,15 +8304,15 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -8324,12 +8324,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -8366,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -8448,13 +8448,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -8471,13 +8471,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -8499,7 +8499,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -8539,24 +8539,24 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8604,13 +8604,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -8635,13 +8635,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -8664,18 +8664,18 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -8720,13 +8720,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -8754,10 +8754,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -8771,13 +8771,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -8791,13 +8791,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -8825,10 +8825,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -8839,10 +8839,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -8907,7 +8907,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -8992,13 +8992,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -9035,18 +9035,18 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -9097,10 +9097,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -9120,18 +9120,18 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -9162,13 +9162,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -9182,13 +9182,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -9216,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -9236,10 +9236,10 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -9264,13 +9264,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -9310,18 +9310,18 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -9344,12 +9344,12 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -9400,10 +9400,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -9502,13 +9502,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -9519,10 +9519,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -9548,15 +9548,15 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -9607,13 +9607,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -9627,10 +9627,10 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -9681,10 +9681,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -9695,21 +9695,21 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -9726,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -9740,10 +9740,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -9763,21 +9763,21 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -9797,21 +9797,21 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -9842,13 +9842,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -9859,10 +9859,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -9885,10 +9885,10 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -9896,13 +9896,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -9919,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -9930,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -9981,10 +9981,10 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9998,13 +9998,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -10012,13 +10012,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -10049,10 +10049,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -10080,10 +10080,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -10137,18 +10137,18 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -10168,13 +10168,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -10188,18 +10188,18 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -10225,15 +10225,15 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -10245,15 +10245,15 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -10296,12 +10296,12 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -10338,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -10361,15 +10361,15 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -10460,13 +10460,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -10477,13 +10477,13 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -10494,13 +10494,13 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -10522,10 +10522,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -10548,10 +10548,10 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -10568,15 +10568,15 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -10593,10 +10593,10 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -10627,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
